--- a/data/trans_orig/P12_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P12_1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C428001-3618-4A9A-92BC-60CFADBF73AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC9DFB9-B556-4B29-B1D8-0B8A7540F8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE38F129-9D68-4181-A340-845366A891DE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAADA934-3EA6-4CF1-812B-3D8436E21857}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
   <si>
     <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1843 +77,1837 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2015 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>88,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
   </si>
   <si>
     <t>21,04%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
   </si>
   <si>
     <t>78,96%</t>
   </si>
   <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
   </si>
   <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
     <t>76,62%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C54115D-CE44-4D15-BB40-89434B47C263}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139C1D24-620B-4949-A7B8-DDE292A59BB5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3767,7 +3761,7 @@
         <v>5224</v>
       </c>
       <c r="N29" s="7">
-        <v>5345030</v>
+        <v>5345031</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -3818,7 +3812,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4708B33-FF23-4EAE-ADE9-24EFF10BF2C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E1CB18-C511-423C-AF6C-328CF05BADC4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4588,7 +4582,7 @@
         <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4597,13 +4591,13 @@
         <v>58143</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -4612,13 +4606,13 @@
         <v>80705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4627,13 @@
         <v>190056</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -4648,13 +4642,13 @@
         <v>161448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>332</v>
@@ -4663,13 +4657,13 @@
         <v>351504</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4731,13 @@
         <v>38280</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -4752,28 +4746,28 @@
         <v>64934</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
       </c>
       <c r="N19" s="7">
-        <v>103215</v>
+        <v>103214</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4782,13 @@
         <v>235701</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -4803,13 +4797,13 @@
         <v>214146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>430</v>
@@ -4818,13 +4812,13 @@
         <v>449847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,7 +4860,7 @@
         <v>529</v>
       </c>
       <c r="N21" s="7">
-        <v>553062</v>
+        <v>553061</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4892,13 +4886,13 @@
         <v>112955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
@@ -4907,13 +4901,13 @@
         <v>161204</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>253</v>
@@ -4922,13 +4916,13 @@
         <v>274159</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4937,13 @@
         <v>549833</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7">
         <v>489</v>
@@ -4958,13 +4952,13 @@
         <v>531667</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>1000</v>
@@ -4973,13 +4967,13 @@
         <v>1081500</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5041,13 @@
         <v>130269</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>177</v>
@@ -5062,13 +5056,13 @@
         <v>194786</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>291</v>
@@ -5077,13 +5071,13 @@
         <v>325055</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5092,13 @@
         <v>647698</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>579</v>
@@ -5113,28 +5107,28 @@
         <v>628003</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1181</v>
       </c>
       <c r="N26" s="7">
-        <v>1275700</v>
+        <v>1275701</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,7 +5170,7 @@
         <v>1472</v>
       </c>
       <c r="N27" s="7">
-        <v>1600755</v>
+        <v>1600756</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -5202,13 +5196,13 @@
         <v>540216</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H28" s="7">
         <v>856</v>
@@ -5217,13 +5211,13 @@
         <v>919506</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M28" s="7">
         <v>1358</v>
@@ -5232,13 +5226,13 @@
         <v>1459722</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5247,13 @@
         <v>2883434</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>2435</v>
@@ -5268,13 +5262,13 @@
         <v>2630804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>5139</v>
@@ -5283,13 +5277,13 @@
         <v>5514238</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A332788E-42B3-45BB-B4F9-F1187B44BAA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B999BF-CB40-4F76-B8E5-57EA4AC9037D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5487,13 @@
         <v>70364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -5508,13 +5502,13 @@
         <v>94448</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>152</v>
@@ -5523,13 +5517,13 @@
         <v>164812</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,10 +5538,10 @@
         <v>223397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>331</v>
@@ -5803,13 +5797,13 @@
         <v>37991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -5818,13 +5812,13 @@
         <v>50657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -5833,13 +5827,13 @@
         <v>88649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5848,13 @@
         <v>280574</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -5869,13 +5863,13 @@
         <v>283737</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -5884,13 +5878,13 @@
         <v>564310</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5952,13 @@
         <v>64802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -5973,13 +5967,13 @@
         <v>103120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>159</v>
@@ -5991,10 +5985,10 @@
         <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6003,13 @@
         <v>305162</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>260</v>
@@ -6024,13 +6018,13 @@
         <v>282401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>551</v>
@@ -6116,10 +6110,10 @@
         <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -6128,13 +6122,13 @@
         <v>49701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -6143,13 +6137,13 @@
         <v>90415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6158,13 @@
         <v>170506</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -6179,13 +6173,13 @@
         <v>168886</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>345</v>
@@ -6194,13 +6188,13 @@
         <v>339393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6262,13 @@
         <v>27732</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -6283,13 +6277,13 @@
         <v>51866</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -6298,13 +6292,13 @@
         <v>79598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6313,13 @@
         <v>235391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>216</v>
@@ -6334,13 +6328,13 @@
         <v>221249</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>446</v>
@@ -6349,13 +6343,13 @@
         <v>456640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6417,13 @@
         <v>87665</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
@@ -6438,13 +6432,13 @@
         <v>118439</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>185</v>
@@ -6453,13 +6447,13 @@
         <v>206105</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6468,13 @@
         <v>568893</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>536</v>
@@ -6489,13 +6483,13 @@
         <v>571584</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>1040</v>
@@ -6504,13 +6498,13 @@
         <v>1140476</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6572,13 @@
         <v>38339</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -6593,13 +6587,13 @@
         <v>72761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -6608,13 +6602,13 @@
         <v>111100</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6623,13 @@
         <v>739218</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>694</v>
@@ -6644,13 +6638,13 @@
         <v>753406</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>1405</v>
@@ -6659,13 +6653,13 @@
         <v>1492624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6727,13 @@
         <v>395005</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>545</v>
@@ -6748,13 +6742,13 @@
         <v>588555</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>278</v>
       </c>
       <c r="M28" s="7">
         <v>924</v>
@@ -6763,13 +6757,13 @@
         <v>983560</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,28 +6778,28 @@
         <v>2997174</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>2787</v>
       </c>
       <c r="I29" s="7">
-        <v>2949871</v>
+        <v>2949870</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>286</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>5637</v>
@@ -6814,10 +6808,10 @@
         <v>5947044</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>473</v>
@@ -6847,7 +6841,7 @@
         <v>3332</v>
       </c>
       <c r="I30" s="7">
-        <v>3538426</v>
+        <v>3538425</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -6900,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41EE0F2-C406-4398-A9E0-71AF9A71A25F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC140EE-F19B-4B4C-9AC3-26DF2244CB32}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7030,7 +7024,7 @@
         <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -7039,10 +7033,10 @@
         <v>15541</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>479</v>
@@ -7078,10 +7072,10 @@
         <v>483</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
@@ -7090,13 +7084,13 @@
         <v>255862</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M5" s="7">
         <v>821</v>
@@ -7340,7 +7334,7 @@
         <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>415</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -7349,13 +7343,13 @@
         <v>52987</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -7364,13 +7358,13 @@
         <v>82383</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7379,13 @@
         <v>292844</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H11" s="7">
         <v>452</v>
@@ -7400,13 +7394,13 @@
         <v>319685</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>776</v>
@@ -7415,13 +7409,13 @@
         <v>612530</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7483,13 @@
         <v>48784</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>527</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>116</v>
@@ -7504,13 +7498,13 @@
         <v>71059</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -7519,13 +7513,13 @@
         <v>119843</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7534,13 @@
         <v>272619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>533</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>534</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>535</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -7555,13 +7549,13 @@
         <v>357497</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>726</v>
@@ -7799,13 +7793,13 @@
         <v>37119</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -7814,13 +7808,13 @@
         <v>43033</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -7829,13 +7823,13 @@
         <v>80152</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7844,13 @@
         <v>240104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>568</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -7865,13 +7859,13 @@
         <v>232589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>691</v>
@@ -7880,13 +7874,13 @@
         <v>472693</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7948,13 @@
         <v>114348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>249</v>
@@ -7969,13 +7963,13 @@
         <v>300396</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
@@ -7984,13 +7978,13 @@
         <v>414744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7999,13 @@
         <v>513406</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H23" s="7">
         <v>711</v>
@@ -8020,13 +8014,13 @@
         <v>503807</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
@@ -8035,13 +8029,13 @@
         <v>1017213</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,28 +8258,28 @@
         <v>460618</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>1148</v>
       </c>
       <c r="I28" s="7">
-        <v>830573</v>
+        <v>830574</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>1662</v>
@@ -8294,13 +8288,13 @@
         <v>1291191</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>207</v>
+        <v>614</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8309,13 @@
         <v>2923773</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="H29" s="7">
         <v>4214</v>
@@ -8330,13 +8324,13 @@
         <v>2976288</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="M29" s="7">
         <v>7075</v>
@@ -8345,13 +8339,13 @@
         <v>5900061</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>217</v>
+        <v>621</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8378,7 +8372,7 @@
         <v>5362</v>
       </c>
       <c r="I30" s="7">
-        <v>3806861</v>
+        <v>3806862</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P12_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P12_1_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC9DFB9-B556-4B29-B1D8-0B8A7540F8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{023EDD0A-2E69-42C8-A231-93904C0A4C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAADA934-3EA6-4CF1-812B-3D8436E21857}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54CD4F32-2308-4FA3-9299-6BF23200695E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
   <si>
     <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>87,52%</t>
   </si>
   <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>82,17%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>22,46%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
   </si>
   <si>
     <t>34,93%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>28,77%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
   </si>
   <si>
     <t>77,54%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
   </si>
   <si>
     <t>65,07%</t>
   </si>
   <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
   </si>
   <si>
     <t>71,23%</t>
   </si>
   <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>6,09%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>93,91%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +254,55 @@
     <t>13,12%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>86,88%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>84,1%</t>
   </si>
   <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,55 +311,55 @@
     <t>24,34%</t>
   </si>
   <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>32,17%</t>
   </si>
   <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>67,83%</t>
   </si>
   <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
   </si>
   <si>
     <t>71,71%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -368,55 +368,55 @@
     <t>9,79%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -425,55 +425,55 @@
     <t>11,69%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>88,31%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>85,54%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -482,1432 +482,1408 @@
     <t>26,28%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
   </si>
   <si>
     <t>27,94%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>72,06%</t>
   </si>
   <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>21,09%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>83,0%</t>
   </si>
   <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>22,67%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>81,52%</t>
   </si>
   <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
   </si>
   <si>
     <t>83,64%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139C1D24-620B-4949-A7B8-DDE292A59BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F4A5D8-7A58-4DBF-BAEF-61E43C30BCB9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3731,7 +3707,7 @@
         <v>2665</v>
       </c>
       <c r="D29" s="7">
-        <v>2721876</v>
+        <v>2721875</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -3782,7 +3758,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E1CB18-C511-423C-AF6C-328CF05BADC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34740E9B-D1AF-4927-A446-BA5E636CD9D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4749,10 +4725,10 @@
         <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -4761,13 +4737,13 @@
         <v>103214</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4758,13 @@
         <v>235701</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -4797,13 +4773,13 @@
         <v>214146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>430</v>
@@ -4812,13 +4788,13 @@
         <v>449847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4862,13 @@
         <v>112955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
@@ -4904,10 +4880,10 @@
         <v>260</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>253</v>
@@ -4916,13 +4892,13 @@
         <v>274159</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4913,13 @@
         <v>549833</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>489</v>
@@ -4952,13 +4928,13 @@
         <v>531667</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>1000</v>
@@ -4967,13 +4943,13 @@
         <v>1081500</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5017,13 @@
         <v>130269</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>177</v>
@@ -5056,13 +5032,13 @@
         <v>194786</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>291</v>
@@ -5071,13 +5047,13 @@
         <v>325055</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5068,13 @@
         <v>647698</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>579</v>
@@ -5107,28 +5083,28 @@
         <v>628003</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>1181</v>
       </c>
       <c r="N26" s="7">
-        <v>1275701</v>
+        <v>1275700</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,7 +5146,7 @@
         <v>1472</v>
       </c>
       <c r="N27" s="7">
-        <v>1600756</v>
+        <v>1600755</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -5196,13 +5172,13 @@
         <v>540216</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>856</v>
@@ -5211,13 +5187,13 @@
         <v>919506</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>1358</v>
@@ -5226,13 +5202,13 @@
         <v>1459722</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5223,13 @@
         <v>2883434</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>2435</v>
@@ -5262,13 +5238,13 @@
         <v>2630804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>5139</v>
@@ -5277,13 +5253,13 @@
         <v>5514238</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B999BF-CB40-4F76-B8E5-57EA4AC9037D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFEE75F-41A2-46F0-B928-15C67DA1D1F8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5463,13 @@
         <v>70364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -5502,13 +5478,13 @@
         <v>94448</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>152</v>
@@ -5517,13 +5493,13 @@
         <v>164812</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5514,13 @@
         <v>223397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>188</v>
@@ -5553,13 +5529,13 @@
         <v>194255</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>391</v>
@@ -5568,13 +5544,13 @@
         <v>417652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5618,13 @@
         <v>27396</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -5657,13 +5633,13 @@
         <v>47564</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -5672,13 +5648,13 @@
         <v>74960</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5669,13 @@
         <v>474033</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -5708,13 +5684,13 @@
         <v>474351</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>886</v>
@@ -5723,13 +5699,13 @@
         <v>948385</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5773,13 @@
         <v>37991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -5812,13 +5788,13 @@
         <v>50657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -5827,13 +5803,13 @@
         <v>88649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5824,13 @@
         <v>280574</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -5863,13 +5839,13 @@
         <v>283737</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -5878,13 +5854,13 @@
         <v>564310</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5928,13 @@
         <v>64802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -5967,13 +5943,13 @@
         <v>103120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>159</v>
@@ -5982,13 +5958,13 @@
         <v>167922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5979,13 @@
         <v>305162</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>260</v>
@@ -6018,13 +5994,13 @@
         <v>282401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>551</v>
@@ -6033,13 +6009,13 @@
         <v>587563</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6083,13 @@
         <v>40715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -6122,13 +6098,13 @@
         <v>49701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -6137,13 +6113,13 @@
         <v>90415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6134,13 @@
         <v>170506</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -6173,7 +6149,7 @@
         <v>168886</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>403</v>
@@ -6277,13 +6253,13 @@
         <v>51866</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>259</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -6292,13 +6268,13 @@
         <v>79598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6289,13 @@
         <v>235391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>216</v>
@@ -6328,13 +6304,13 @@
         <v>221249</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>160</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>446</v>
@@ -6343,13 +6319,13 @@
         <v>456640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6393,13 @@
         <v>87665</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
@@ -6432,13 +6408,13 @@
         <v>118439</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>185</v>
@@ -6447,13 +6423,13 @@
         <v>206105</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6444,13 @@
         <v>568893</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>536</v>
@@ -6483,13 +6459,13 @@
         <v>571584</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>427</v>
       </c>
       <c r="M23" s="7">
         <v>1040</v>
@@ -6498,13 +6474,13 @@
         <v>1140476</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>232</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6548,13 @@
         <v>38339</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -6587,13 +6563,13 @@
         <v>72761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -6602,13 +6578,13 @@
         <v>111100</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6599,13 @@
         <v>739218</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>694</v>
@@ -6638,13 +6614,13 @@
         <v>753406</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>1405</v>
@@ -6653,13 +6629,13 @@
         <v>1492624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6703,13 @@
         <v>395005</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>545</v>
@@ -6742,13 +6718,13 @@
         <v>588555</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>278</v>
+        <v>453</v>
       </c>
       <c r="M28" s="7">
         <v>924</v>
@@ -6757,13 +6733,13 @@
         <v>983560</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>17</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,28 +6754,28 @@
         <v>2997174</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>2787</v>
       </c>
       <c r="I29" s="7">
-        <v>2949870</v>
+        <v>2949871</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>286</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>5637</v>
@@ -6808,13 +6784,13 @@
         <v>5947044</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>27</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,7 +6817,7 @@
         <v>3332</v>
       </c>
       <c r="I30" s="7">
-        <v>3538425</v>
+        <v>3538426</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -6894,7 +6870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC140EE-F19B-4B4C-9AC3-26DF2244CB32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB483A36-E544-44E3-89AF-737B9021CC5C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7018,13 +6994,13 @@
         <v>10339</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -7033,13 +7009,13 @@
         <v>15541</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -7048,13 +7024,13 @@
         <v>25880</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7045,13 @@
         <v>249959</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
@@ -7084,13 +7060,13 @@
         <v>255862</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>821</v>
@@ -7099,13 +7075,13 @@
         <v>505820</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7149,13 @@
         <v>64645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>123</v>
@@ -7188,13 +7164,13 @@
         <v>90415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -7203,13 +7179,13 @@
         <v>155060</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7200,13 @@
         <v>454652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>594</v>
@@ -7239,13 +7215,13 @@
         <v>464151</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="M8" s="7">
         <v>927</v>
@@ -7254,13 +7230,13 @@
         <v>918804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7304,13 @@
         <v>29396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>415</v>
+        <v>499</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -7343,13 +7319,13 @@
         <v>52987</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -7358,13 +7334,13 @@
         <v>82383</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>516</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7355,13 @@
         <v>292844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>425</v>
+        <v>506</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="H11" s="7">
         <v>452</v>
@@ -7394,13 +7370,13 @@
         <v>319685</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="M11" s="7">
         <v>776</v>
@@ -7409,13 +7385,13 @@
         <v>612530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7459,13 @@
         <v>48784</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="H13" s="7">
         <v>116</v>
@@ -7498,13 +7474,13 @@
         <v>71059</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -7513,13 +7489,13 @@
         <v>119843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7510,13 @@
         <v>272619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>533</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>522</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -7549,13 +7525,13 @@
         <v>357497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="M14" s="7">
         <v>726</v>
@@ -7564,13 +7540,13 @@
         <v>630116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7614,13 @@
         <v>75035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="H16" s="7">
         <v>255</v>
@@ -7653,13 +7629,13 @@
         <v>111246</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
@@ -7668,13 +7644,13 @@
         <v>186281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7665,13 @@
         <v>121713</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="H17" s="7">
         <v>236</v>
@@ -7704,13 +7680,13 @@
         <v>120159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="M17" s="7">
         <v>399</v>
@@ -7719,13 +7695,13 @@
         <v>241871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7769,13 @@
         <v>37119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -7808,13 +7784,13 @@
         <v>43033</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -7823,13 +7799,13 @@
         <v>80152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7820,13 @@
         <v>240104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>555</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -7859,13 +7835,13 @@
         <v>232589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="M20" s="7">
         <v>691</v>
@@ -7874,13 +7850,13 @@
         <v>472693</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7924,13 @@
         <v>114348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H22" s="7">
         <v>249</v>
@@ -7963,13 +7939,13 @@
         <v>300396</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
@@ -7978,13 +7954,13 @@
         <v>414744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +7975,13 @@
         <v>513406</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H23" s="7">
         <v>711</v>
@@ -8014,13 +7990,13 @@
         <v>503807</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
@@ -8029,13 +8005,13 @@
         <v>1017213</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8079,13 @@
         <v>80951</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="H25" s="7">
         <v>202</v>
@@ -8118,13 +8094,13 @@
         <v>145896</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="M25" s="7">
         <v>286</v>
@@ -8133,13 +8109,13 @@
         <v>226848</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8130,13 @@
         <v>778477</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="H26" s="7">
         <v>860</v>
@@ -8169,13 +8145,13 @@
         <v>722538</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="M26" s="7">
         <v>1538</v>
@@ -8184,13 +8160,13 @@
         <v>1501014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>84</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,13 +8234,13 @@
         <v>460618</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="H28" s="7">
         <v>1148</v>
@@ -8273,13 +8249,13 @@
         <v>830574</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="M28" s="7">
         <v>1662</v>
@@ -8288,13 +8264,13 @@
         <v>1291191</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>364</v>
+        <v>604</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8285,13 @@
         <v>2923773</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>384</v>
+        <v>606</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="H29" s="7">
         <v>4214</v>
@@ -8324,13 +8300,13 @@
         <v>2976288</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="M29" s="7">
         <v>7075</v>
@@ -8339,13 +8315,13 @@
         <v>5900061</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>372</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
